--- a/REGULAR/OJT/MANALO CYNTHIA.xlsx
+++ b/REGULAR/OJT/MANALO CYNTHIA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="277">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1889,7 +1889,7 @@
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A386" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="B399" sqref="B399"/>
+      <selection pane="bottomLeft" activeCell="K401" sqref="K401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2052,7 +2052,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>146.34899999999993</v>
+        <v>147.84899999999993</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2062,7 +2062,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>138.125</v>
+        <v>140.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -10566,13 +10566,15 @@
       <c r="B397" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C397" s="13"/>
+      <c r="C397" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D397" s="39"/>
       <c r="E397" s="9"/>
       <c r="F397" s="20"/>
-      <c r="G397" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G397" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H397" s="39"/>
       <c r="I397" s="9"/>
@@ -10626,15 +10628,19 @@
       </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A400" s="40"/>
+      <c r="A400" s="40">
+        <v>45078</v>
+      </c>
       <c r="B400" s="20"/>
-      <c r="C400" s="13"/>
+      <c r="C400" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D400" s="39"/>
       <c r="E400" s="9"/>
       <c r="F400" s="20"/>
-      <c r="G400" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G400" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H400" s="39"/>
       <c r="I400" s="9"/>
@@ -10642,10 +10648,16 @@
       <c r="K400" s="20"/>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A401" s="40"/>
-      <c r="B401" s="20"/>
+      <c r="A401" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B401" s="20" t="s">
+        <v>109</v>
+      </c>
       <c r="C401" s="13"/>
-      <c r="D401" s="39"/>
+      <c r="D401" s="39">
+        <v>1</v>
+      </c>
       <c r="E401" s="9"/>
       <c r="F401" s="20"/>
       <c r="G401" s="13" t="str">
@@ -10655,7 +10667,9 @@
       <c r="H401" s="39"/>
       <c r="I401" s="9"/>
       <c r="J401" s="11"/>
-      <c r="K401" s="20"/>
+      <c r="K401" s="49">
+        <v>45124</v>
+      </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
@@ -11468,7 +11482,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>284.47399999999993</v>
+        <v>288.47399999999993</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/OJT/MANALO CYNTHIA.xlsx
+++ b/REGULAR/OJT/MANALO CYNTHIA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="279">
   <si>
     <t>PERIOD</t>
   </si>
@@ -864,6 +864,12 @@
   </si>
   <si>
     <t>4/20,24-28/2023</t>
+  </si>
+  <si>
+    <t>FL(4-0-0)</t>
+  </si>
+  <si>
+    <t>9/6,7,8,12/2023</t>
   </si>
 </sst>
 </file>
@@ -1889,7 +1895,7 @@
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A386" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="K401" sqref="K401"/>
+      <selection pane="bottomLeft" activeCell="K403" sqref="K403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2052,7 +2058,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>147.84899999999993</v>
+        <v>143.84899999999993</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -10672,10 +10678,16 @@
       </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A402" s="40"/>
-      <c r="B402" s="20"/>
+      <c r="A402" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B402" s="20" t="s">
+        <v>277</v>
+      </c>
       <c r="C402" s="13"/>
-      <c r="D402" s="39"/>
+      <c r="D402" s="39">
+        <v>4</v>
+      </c>
       <c r="E402" s="9"/>
       <c r="F402" s="20"/>
       <c r="G402" s="13" t="str">
@@ -10685,7 +10697,9 @@
       <c r="H402" s="39"/>
       <c r="I402" s="9"/>
       <c r="J402" s="11"/>
-      <c r="K402" s="20"/>
+      <c r="K402" s="20" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
@@ -11482,7 +11496,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>288.47399999999993</v>
+        <v>284.47399999999993</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/OJT/MANALO CYNTHIA.xlsx
+++ b/REGULAR/OJT/MANALO CYNTHIA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5D75FF-F287-4DAA-9D4E-326A22806C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68ADA47-AB77-466E-8F6D-E2597E4F83C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="280">
   <si>
     <t>PERIOD</t>
   </si>
@@ -871,6 +871,9 @@
   </si>
   <si>
     <t>9/6,7,8,12/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -1562,7 +1565,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K441" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K442" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
@@ -1891,12 +1894,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K441"/>
+  <dimension ref="A2:K442"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A394" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A112" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="C408" sqref="C408"/>
+      <selection pane="bottomLeft" activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2059,7 +2062,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>147.59899999999993</v>
+        <v>151.34899999999993</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2069,7 +2072,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>144.375</v>
+        <v>148.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -10731,13 +10734,15 @@
         <v>45230</v>
       </c>
       <c r="B404" s="20"/>
-      <c r="C404" s="13"/>
+      <c r="C404" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D404" s="39"/>
       <c r="E404" s="9"/>
       <c r="F404" s="20"/>
-      <c r="G404" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G404" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H404" s="39"/>
       <c r="I404" s="9"/>
@@ -10749,13 +10754,15 @@
         <v>45260</v>
       </c>
       <c r="B405" s="20"/>
-      <c r="C405" s="13"/>
+      <c r="C405" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D405" s="39"/>
       <c r="E405" s="9"/>
       <c r="F405" s="20"/>
-      <c r="G405" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G405" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H405" s="39"/>
       <c r="I405" s="9"/>
@@ -10767,13 +10774,15 @@
         <v>45291</v>
       </c>
       <c r="B406" s="20"/>
-      <c r="C406" s="13"/>
+      <c r="C406" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D406" s="39"/>
       <c r="E406" s="9"/>
       <c r="F406" s="20"/>
-      <c r="G406" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G406" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H406" s="39"/>
       <c r="I406" s="9"/>
@@ -10781,8 +10790,8 @@
       <c r="K406" s="20"/>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A407" s="40">
-        <v>45322</v>
+      <c r="A407" s="48" t="s">
+        <v>279</v>
       </c>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -10800,7 +10809,7 @@
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -10818,7 +10827,7 @@
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -10835,7 +10844,9 @@
       <c r="K409" s="20"/>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A410" s="40"/>
+      <c r="A410" s="40">
+        <v>45382</v>
+      </c>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
       <c r="D410" s="39"/>
@@ -11331,20 +11342,36 @@
       <c r="K440" s="20"/>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A441" s="41"/>
-      <c r="B441" s="15"/>
-      <c r="C441" s="42"/>
-      <c r="D441" s="43"/>
+      <c r="A441" s="40"/>
+      <c r="B441" s="20"/>
+      <c r="C441" s="13"/>
+      <c r="D441" s="39"/>
       <c r="E441" s="9"/>
-      <c r="F441" s="15"/>
-      <c r="G441" s="42" t="str">
+      <c r="F441" s="20"/>
+      <c r="G441" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H441" s="43"/>
+      <c r="H441" s="39"/>
       <c r="I441" s="9"/>
-      <c r="J441" s="12"/>
-      <c r="K441" s="15"/>
+      <c r="J441" s="11"/>
+      <c r="K441" s="20"/>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A442" s="41"/>
+      <c r="B442" s="15"/>
+      <c r="C442" s="42"/>
+      <c r="D442" s="43"/>
+      <c r="E442" s="9"/>
+      <c r="F442" s="15"/>
+      <c r="G442" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H442" s="43"/>
+      <c r="I442" s="9"/>
+      <c r="J442" s="12"/>
+      <c r="K442" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11391,7 +11418,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11517,7 +11544,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>291.97399999999993</v>
+        <v>299.47399999999993</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
